--- a/3.勤怠管理アプリ/04_外部仕様書/2.機能設計/機能一覧.xlsx
+++ b/3.勤怠管理アプリ/04_外部仕様書/2.機能設計/機能一覧.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KPB-036\Desktop\java研修\演習2\要件定義書\1.ショッピングサイト\04_外部仕様書\1.概要\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\3.勤怠管理アプリ\3.勤怠管理アプリ\3.勤怠管理アプリ\04_外部仕様書\2.機能設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB1A5FC-E759-46F2-95FF-72D026CC6325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30885" yWindow="0" windowWidth="17280" windowHeight="12480" activeTab="1" xr2:uid="{CCF76CFB-D2A0-4814-B888-2440D70E4E7F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">機能一覧!$A$1:$J$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">変更履歴!$A$1:$E$38</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
@@ -145,16 +144,59 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>注文</t>
-    <rPh sb="0" eb="2">
-      <t>チュウモン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>注文登録機能</t>
-    <rPh sb="0" eb="2">
-      <t>チュウモン</t>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーIDとパスワードでログインする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>照会</t>
+    <rPh sb="0" eb="2">
+      <t>ショウカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠登録機能</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>トウロク</t>
@@ -165,20 +207,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>内容</t>
-    <rPh sb="0" eb="2">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーIDとパスワードでログインする</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>注文内容変更機能</t>
-    <rPh sb="0" eb="2">
-      <t>チュウモン</t>
+    <t>勤怠内容変更機能</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
@@ -192,9 +223,42 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>注文内容を変更する</t>
-    <rPh sb="0" eb="2">
-      <t>チュウモン</t>
+    <t>勤怠申請機能</t>
+    <rPh sb="0" eb="4">
+      <t>キンタイシンセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠情報表示</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠情報をデータベースに保存する</t>
+    <rPh sb="0" eb="4">
+      <t>キンタイジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠内容を変更して保存</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>ナイヨウ</t>
@@ -202,50 +266,41 @@
     <rPh sb="5" eb="7">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>注文を確定する</t>
-    <rPh sb="0" eb="2">
-      <t>チュウモン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カクテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>更新</t>
-    <rPh sb="0" eb="2">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除</t>
-    <rPh sb="0" eb="2">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>照会</t>
-    <rPh sb="0" eb="2">
-      <t>ショウカイ</t>
+    <rPh sb="9" eb="11">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠情報を申請する</t>
+    <rPh sb="0" eb="4">
+      <t>キンタイジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保存した勤怠情報を表示</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="4" eb="8">
+      <t>キンタイジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤怠内容</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -257,7 +312,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -311,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -397,13 +452,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -425,6 +491,27 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -455,29 +542,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,9 +581,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>2872740</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>15352</xdr:rowOff>
+          <xdr:colOff>2876550</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>211455</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -526,7 +598,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1051"/>
+                  <a14:cameraTool cellRange="変更履歴!$A$1:$E$2" spid="_x0000_s1058"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -541,7 +613,7 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="1905"/>
-              <a:ext cx="6115050" cy="685800"/>
+              <a:ext cx="6115050" cy="676275"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -862,28 +934,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B729E61E-B949-41F9-8A89-4E73CECF64D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="2" max="2" width="10.69921875" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="3" width="35" customWidth="1"/>
-    <col min="4" max="4" width="12.09765625" customWidth="1"/>
-    <col min="5" max="5" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="26.45" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -893,271 +965,271 @@
         <v>44463</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:5" ht="27.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="16.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="9"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="9"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="16"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="9"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="1"/>
     </row>
   </sheetData>
@@ -1207,280 +1279,301 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C20FC5-7AE7-48A7-98CD-9081647BBD6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" customWidth="1"/>
-    <col min="2" max="2" width="4.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.8984375" customWidth="1"/>
-    <col min="4" max="4" width="21.296875" customWidth="1"/>
-    <col min="5" max="5" width="41.8984375" customWidth="1"/>
-    <col min="6" max="8" width="7.796875" customWidth="1"/>
-    <col min="10" max="10" width="3.69921875" customWidth="1"/>
+    <col min="1" max="1" width="3.25" customWidth="1"/>
+    <col min="2" max="2" width="4.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="5" max="5" width="41.875" customWidth="1"/>
+    <col min="6" max="8" width="7.75" customWidth="1"/>
+    <col min="10" max="10" width="3.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B5" s="17" t="s">
+    <row r="1" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
       <c r="F6" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="23" t="s">
-        <v>14</v>
+      <c r="C8" s="24" t="s">
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="12"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C8:C11"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
